--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1812804.543260295</v>
+        <v>1810552.463549087</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629553</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>74.55828483826286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.0414190854971</v>
       </c>
       <c r="V4" t="n">
-        <v>114.2656173771025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>399.9571464892281</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>233.9232825284299</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>80.0012411808169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>23.76252906476714</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826027</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.0529291869888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>38.37250637581094</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238252</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>219.0085678128059</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763426</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2811815126411988</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272892</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042414</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892423</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>100.2207207382374</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340497</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>55.52079624060293</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>137.7610225486951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892489</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105634</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697683</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>1722.044275313594</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>817.0352339990379</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>817.0352339990379</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>810.0897332498345</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4601,16 +4601,16 @@
         <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2773.051261552376</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.282606282261</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218339</v>
@@ -4726,49 +4726,49 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658018</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658018</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1151.298377994912</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2985.334850909611</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2654.27196356604</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2301.503308295926</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1928.037550034846</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1537.898218059034</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986289</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>676.4685272225361</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746701</v>
+        <v>858.1169920527758</v>
       </c>
       <c r="X10" t="n">
-        <v>899.0183448486839</v>
+        <v>858.1169920527758</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>858.1169920527758</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,31 +5054,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.202976129947</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.348141784852</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.746676807793</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.671450151991</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.747908249255</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,28 +5291,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434702</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155634</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032276</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208345</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015257</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.41557511724</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.62299597371</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424063</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826424063</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>378.6527890600132</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415621029</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415621029</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.500769464729</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368222</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373477</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438499</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949688</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,19 +6303,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327634</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048565</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925207</v>
+        <v>376.4492432300665</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101276</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122173</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122173</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>149.8982754122173</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138363</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431071</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>6.701087576231259</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228528</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.13986651029</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243579972</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>48.39475227997492</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580152</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.92242111251943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>25.74504007796261</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.59775584153141</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.642071966</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907546</v>
       </c>
       <c r="G2" t="n">
         <v>544823.954790754</v>
@@ -26332,25 +26332,25 @@
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314483</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314486</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90354.06702314489</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314485</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26433,7 +26433,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26451,10 +26451,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.5586537393</v>
+        <v>-972829.558653739</v>
       </c>
       <c r="C6" t="n">
-        <v>355915.1870738539</v>
+        <v>355915.1870738534</v>
       </c>
       <c r="D6" t="n">
-        <v>355915.1870738532</v>
+        <v>355915.1870738533</v>
       </c>
       <c r="E6" t="n">
-        <v>107121.9309076982</v>
+        <v>107087.1929822624</v>
       </c>
       <c r="F6" t="n">
-        <v>432534.392715053</v>
+        <v>432499.6547896182</v>
       </c>
       <c r="G6" t="n">
-        <v>432534.3927150533</v>
+        <v>432499.6547896179</v>
       </c>
       <c r="H6" t="n">
-        <v>432534.3927150533</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="I6" t="n">
-        <v>432534.3927150533</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="J6" t="n">
-        <v>215003.1903177758</v>
+        <v>214968.45239234</v>
       </c>
       <c r="K6" t="n">
-        <v>432534.3927150532</v>
+        <v>432499.6547896173</v>
       </c>
       <c r="L6" t="n">
-        <v>432534.3927150532</v>
+        <v>432499.6547896173</v>
       </c>
       <c r="M6" t="n">
-        <v>347479.3647795416</v>
+        <v>347444.6268541056</v>
       </c>
       <c r="N6" t="n">
-        <v>432534.3927150532</v>
+        <v>432499.6547896179</v>
       </c>
       <c r="O6" t="n">
-        <v>432534.3927150532</v>
+        <v>432499.6547896173</v>
       </c>
       <c r="P6" t="n">
-        <v>432534.3927150531</v>
+        <v>432499.6547896174</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.306832697356</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577276</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>295.1728158402062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>200.1704191201158</v>
       </c>
       <c r="V4" t="n">
-        <v>137.8720259467255</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>10.96457916422537</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>93.82897594170504</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>206.5217571557741</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>227.2326428941348</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683307</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.53172416510597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.642779091942156e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29961,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060495</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
-        <v>695.222208616788</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>270.9716933356906</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,16 +34214,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316905</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899085</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
-        <v>563.8804965334547</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>132.4173135558164</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>81.10138438501835</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
